--- a/TestData/Labour.xlsx
+++ b/TestData/Labour.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Url</t>
   </si>
@@ -223,13 +224,76 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Entity Branch -Branch name</t>
+  </si>
+  <si>
+    <t>aurangabad</t>
+  </si>
+  <si>
+    <t>Branch Address</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Employer Address</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Manager Name</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Manager Address</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Company Ph. No</t>
+  </si>
+  <si>
+    <t>HRPhNo</t>
+  </si>
+  <si>
+    <t>NatureofBusiness</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Paycode Mapping - header name</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>swapnil.bhosle@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +339,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -303,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -312,6 +382,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,7 +668,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +775,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +1054,94 @@
         <v>65</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>2222222222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -993,4 +1153,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/TestData/Labour.xlsx
+++ b/TestData/Labour.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\LabourAngularProject\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>Url</t>
   </si>
@@ -40,9 +36,6 @@
     <t>https://www.mca.gov.in/content/mca/global/en/mca/master-data/MDS.html</t>
   </si>
   <si>
-    <t>https://labour-uat.teamleaseregtech.com/Login</t>
-  </si>
-  <si>
     <t>teamlease</t>
   </si>
   <si>
@@ -211,12 +204,6 @@
     <t>Invalid email</t>
   </si>
   <si>
-    <t>VOLVU6R</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Search Entity</t>
   </si>
   <si>
@@ -283,10 +270,25 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>swapnil.bhosle@tlregtech.in</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>compliance@1234</t>
+  </si>
+  <si>
+    <t>https://labour.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>clientportal@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>ZENVGL</t>
+  </si>
+  <si>
+    <t>RG</t>
   </si>
 </sst>
 </file>
@@ -668,97 +670,102 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -766,9 +773,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -777,369 +786,370 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
       <c r="B5">
         <v>1111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
       </c>
       <c r="B13">
         <v>2222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="B20">
         <v>123335789012342</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="6">
         <v>3333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="B41">
         <v>2222222222</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <v>3333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B45" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1160,24 +1170,24 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1185,21 +1195,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestData/Labour.xlsx
+++ b/TestData/Labour.xlsx
@@ -3,16 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabourAngularProject\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>Url</t>
   </si>
@@ -282,20 +288,35 @@
     <t>clientportal@gmail.com</t>
   </si>
   <si>
+    <t>ZENVGL</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>reviewer.reviewer@gmail.com</t>
+  </si>
+  <si>
+    <t>4ccNbLJE6P</t>
+  </si>
+  <si>
+    <t>clientportal@tcg.com</t>
+  </si>
+  <si>
     <t>admin@123</t>
   </si>
   <si>
-    <t>ZENVGL</t>
-  </si>
-  <si>
-    <t>RG</t>
+    <t>superadminlabourCompliance@tlregtech.com</t>
+  </si>
+  <si>
+    <t>Super@123#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +368,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -375,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -386,6 +419,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,16 +705,16 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -695,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -703,7 +738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -711,61 +746,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -790,14 +826,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.26953125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -813,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -821,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -829,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -837,7 +873,7 @@
         <v>1111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -845,7 +881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -853,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -861,7 +897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -869,7 +905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -877,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,7 +921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -893,7 +929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -901,7 +937,7 @@
         <v>2222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -909,7 +945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -917,21 +953,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -939,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -947,7 +983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -955,7 +991,7 @@
         <v>123335789012342</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
@@ -963,7 +999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -971,7 +1007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -979,7 +1015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -987,7 +1023,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -995,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
@@ -1003,7 +1039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1011,7 +1047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1019,7 +1055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1027,7 +1063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1035,7 +1071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1043,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1051,7 +1087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1059,12 +1095,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -1072,7 +1108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
@@ -1080,7 +1116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="8" t="s">
         <v>69</v>
       </c>
@@ -1096,7 +1132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -1104,7 +1140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="8" t="s">
         <v>73</v>
       </c>
@@ -1112,7 +1148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
         <v>75</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>2222222222</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1128,7 +1164,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
         <v>78</v>
       </c>
@@ -1144,7 +1180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
@@ -1167,19 +1203,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,21 +1325,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="B3" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
